--- a/biology/Zoologie/Encyocrypta_niaouli/Encyocrypta_niaouli.xlsx
+++ b/biology/Zoologie/Encyocrypta_niaouli/Encyocrypta_niaouli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Encyocrypta niaouli est une espèce d'araignées mygalomorphes de la famille des Barychelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encyocrypta niaouli est une espèce d'araignées mygalomorphes de la famille des Barychelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1]. Elle se rencontre vers le col de Boa[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie. Elle se rencontre vers le col de Boa.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 21 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 21 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Raven &amp; Churchill, 1991 : A revision of the mygalomorph spider genus Encyocrypta Simon in New Caledonia (Araneae Barychelidae). Zoologia Neocaledonica, vol. 2, Mémoires du Muséum National d'Histoire Naturelle de Paris, sér. A, vol. 149, p. 31-86.</t>
         </is>
